--- a/docs/MIPS指令.xlsx
+++ b/docs/MIPS指令.xlsx
@@ -8,10 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrnperl\vivado-projects\cpu\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35F20611-C68F-4B70-A703-064B1E2B2198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D111D4F7-CA49-4485-99DD-8657D3BF6438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-34035" yWindow="2175" windowWidth="21600" windowHeight="11505" activeTab="3" xr2:uid="{29EA140E-5735-4668-AC12-C4E290C8895C}"/>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{D686756C-3F7D-401D-ABE5-889DB47A00C0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3" xr2:uid="{29EA140E-5735-4668-AC12-C4E290C8895C}"/>
   </bookViews>
   <sheets>
     <sheet name="指令" sheetId="1" r:id="rId1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="227">
   <si>
     <t>描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,9 +314,6 @@
   </si>
   <si>
     <t>branch</t>
-  </si>
-  <si>
-    <t>aluSrc</t>
   </si>
   <si>
     <t>memWrite</t>
@@ -991,7 +987,89 @@
     <cellStyle name="差" xfId="1" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDFFEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDFFEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDFFEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDFFEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDFFEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFDDFFEC"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1430,9 +1508,6 @@
       <pane xSplit="3" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="AJ39" sqref="AJ39"/>
     </sheetView>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="1">
-      <selection activeCell="AL24" sqref="AL24"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1459,7 +1534,7 @@
   <sheetData>
     <row r="1" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1609,21 +1684,21 @@
       <c r="H2" s="18"/>
       <c r="I2" s="18"/>
       <c r="J2" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K2" s="18"/>
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
       <c r="N2" s="18"/>
       <c r="O2" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P2" s="18"/>
       <c r="Q2" s="18"/>
       <c r="R2" s="18"/>
       <c r="S2" s="18"/>
       <c r="T2" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
@@ -1651,34 +1726,34 @@
         <v>73</v>
       </c>
       <c r="AL2" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AM2" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AN2" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AO2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP2" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="AP2" s="3" t="s">
+      <c r="AQ2" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="AQ2" s="3" t="s">
+      <c r="AR2" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="AR2" s="3" t="s">
-        <v>78</v>
-      </c>
       <c r="AS2" s="16" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AT2" s="16"/>
       <c r="AU2" s="16"/>
       <c r="AV2" s="16"/>
       <c r="AW2" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AX2" s="21"/>
       <c r="AY2" s="21"/>
@@ -2761,10 +2836,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D11" s="3">
         <v>0</v>
@@ -2895,10 +2970,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>128</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>129</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
@@ -3029,10 +3104,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D13" s="3">
         <v>0</v>
@@ -3163,10 +3238,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
@@ -3846,7 +3921,7 @@
     </row>
     <row r="19" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B19" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>12</v>
@@ -3967,7 +4042,7 @@
     </row>
     <row r="20" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>14</v>
@@ -4098,14 +4173,14 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="18"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="P21" s="18"/>
       <c r="Q21" s="18"/>
@@ -4267,7 +4342,7 @@
         <v>43</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" s="2">
         <v>0</v>
@@ -5018,13 +5093,13 @@
         <v>1</v>
       </c>
       <c r="AP29" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AQ29" s="3">
         <v>0</v>
       </c>
       <c r="AR29" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS29" s="14">
         <v>0</v>
@@ -5130,13 +5205,13 @@
         <v>0</v>
       </c>
       <c r="AP30" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AQ30" s="4">
         <v>0</v>
       </c>
       <c r="AR30" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS30" s="14">
         <v>0</v>
@@ -5242,13 +5317,13 @@
         <v>0</v>
       </c>
       <c r="AP31" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AQ31" s="4">
         <v>0</v>
       </c>
       <c r="AR31" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS31" s="14">
         <v>0</v>
@@ -5501,7 +5576,7 @@
     </row>
     <row r="34" spans="1:52" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>26</v>
@@ -5713,26 +5788,26 @@
         <v>1</v>
       </c>
       <c r="AK36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL36" s="3"/>
       <c r="AM36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AN36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AO36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AQ36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AR36" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS36" s="14">
         <v>1</v>
@@ -5819,26 +5894,26 @@
         <v>1</v>
       </c>
       <c r="AK37" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL37" s="3"/>
       <c r="AM37" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AN37" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AO37" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AP37" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AQ37" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AR37" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS37" s="14">
         <v>1</v>
@@ -5867,12 +5942,12 @@
     </row>
     <row r="39" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:52" x14ac:dyDescent="0.2">
       <c r="A40" s="17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -6012,42 +6087,42 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="D36:I37 D3:I20 D22:I34 AN3:AN18 AK22:AL23 AD3:AL20 AL23:AL33">
-    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK34:AL34">
-    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK24:AL24">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25:AL25">
-    <cfRule type="cellIs" dxfId="11" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="5" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK26:AL26">
-    <cfRule type="cellIs" dxfId="10" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="4" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK27:AL27">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AW3:AZ37">
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ36:AR37 AJ3:AR18 AJ21:AR33">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6058,23 +6133,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB180623-948A-4C7D-B6DB-DDC5344C22F7}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
-    <sheetView workbookViewId="1">
-      <selection activeCell="C31" sqref="C26:C31"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6092,34 +6165,37 @@
         <v>73</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>82</v>
-      </c>
       <c r="N1" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -6127,46 +6203,49 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D2" t="s">
         <v>183</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="4">
+        <v>0</v>
+      </c>
+      <c r="F2" s="4">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>0</v>
+      </c>
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>1</v>
+      </c>
+      <c r="M2" s="2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>184</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4">
-        <v>0</v>
-      </c>
-      <c r="G2" s="2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>0</v>
-      </c>
-      <c r="J2" s="2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="2">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="O2" t="s">
         <v>185</v>
       </c>
-      <c r="N2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -6174,46 +6253,49 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0</v>
+      </c>
+      <c r="F3" s="4">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>0</v>
+      </c>
+      <c r="K3" s="2">
+        <v>0</v>
+      </c>
+      <c r="L3" s="2">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>184</v>
+      </c>
+      <c r="O3" t="s">
         <v>187</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2">
-        <v>0</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="2">
-        <v>0</v>
-      </c>
-      <c r="J3" s="2">
-        <v>0</v>
-      </c>
-      <c r="K3" s="2">
-        <v>1</v>
-      </c>
-      <c r="L3" s="2">
-        <v>1</v>
-      </c>
-      <c r="M3" t="s">
-        <v>185</v>
-      </c>
-      <c r="N3" t="s">
-        <v>188</v>
-      </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -6221,10 +6303,10 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -6232,35 +6314,38 @@
       <c r="F4" s="4">
         <v>0</v>
       </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="4">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
         <v>0</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
       </c>
       <c r="K4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" s="2">
         <v>1</v>
       </c>
-      <c r="M4" t="s">
-        <v>185</v>
+      <c r="M4" s="2">
+        <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>185</v>
-      </c>
-      <c r="O4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="O4" t="s">
+        <v>184</v>
+      </c>
+      <c r="P4" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -6268,46 +6353,49 @@
         <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0</v>
+      </c>
+      <c r="F5" s="4">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+      <c r="K5" s="2">
+        <v>0</v>
+      </c>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>184</v>
+      </c>
+      <c r="O5" t="s">
         <v>190</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>0</v>
-      </c>
-      <c r="J5" s="2">
-        <v>0</v>
-      </c>
-      <c r="K5" s="2">
-        <v>1</v>
-      </c>
-      <c r="L5" s="2">
-        <v>1</v>
-      </c>
-      <c r="M5" t="s">
-        <v>185</v>
-      </c>
-      <c r="N5" t="s">
-        <v>191</v>
-      </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6315,46 +6403,49 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0</v>
+      </c>
+      <c r="F6" s="4">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+      <c r="K6" s="2">
+        <v>0</v>
+      </c>
+      <c r="L6" s="2">
+        <v>1</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>184</v>
+      </c>
+      <c r="O6" t="s">
         <v>192</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="4">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="2">
-        <v>0</v>
-      </c>
-      <c r="K6" s="2">
-        <v>1</v>
-      </c>
-      <c r="L6" s="2">
-        <v>1</v>
-      </c>
-      <c r="M6" t="s">
-        <v>185</v>
-      </c>
-      <c r="N6" t="s">
-        <v>193</v>
-      </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6362,46 +6453,49 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>184</v>
+      </c>
+      <c r="O7" t="s">
         <v>194</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>1</v>
-      </c>
-      <c r="L7" s="2">
-        <v>1</v>
-      </c>
-      <c r="M7" t="s">
-        <v>185</v>
-      </c>
-      <c r="N7" t="s">
-        <v>195</v>
-      </c>
-      <c r="O7" s="3" t="s">
+      <c r="P7" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6409,46 +6503,49 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D8" t="s">
+        <v>195</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0</v>
+      </c>
+      <c r="L8" s="2">
+        <v>1</v>
+      </c>
+      <c r="M8" s="2">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>184</v>
+      </c>
+      <c r="O8" t="s">
         <v>196</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0</v>
-      </c>
-      <c r="K8" s="2">
-        <v>1</v>
-      </c>
-      <c r="L8" s="2">
-        <v>1</v>
-      </c>
-      <c r="M8" t="s">
-        <v>185</v>
-      </c>
-      <c r="N8" t="s">
-        <v>197</v>
-      </c>
-      <c r="O8" s="3" t="s">
+      <c r="P8" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6456,234 +6553,249 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D9" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>1</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>184</v>
+      </c>
+      <c r="O9" t="s">
         <v>198</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0</v>
-      </c>
-      <c r="K9" s="2">
-        <v>1</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" t="s">
-        <v>185</v>
-      </c>
-      <c r="N9" t="s">
-        <v>199</v>
-      </c>
-      <c r="O9" s="3" t="s">
+      <c r="P9" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>184</v>
+      </c>
+      <c r="O10" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>0</v>
-      </c>
-      <c r="J10" s="2">
-        <v>0</v>
-      </c>
-      <c r="K10" s="2">
-        <v>1</v>
-      </c>
-      <c r="L10" s="2">
-        <v>1</v>
-      </c>
-      <c r="M10" t="s">
-        <v>185</v>
-      </c>
-      <c r="N10" t="s">
-        <v>201</v>
-      </c>
-      <c r="O10" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D11" t="s">
+        <v>201</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+      <c r="K11" s="2">
+        <v>0</v>
+      </c>
+      <c r="L11" s="2">
+        <v>1</v>
+      </c>
+      <c r="M11" s="2">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>184</v>
+      </c>
+      <c r="O11" t="s">
         <v>202</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>0</v>
-      </c>
-      <c r="J11" s="2">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2">
-        <v>1</v>
-      </c>
-      <c r="L11" s="2">
-        <v>1</v>
-      </c>
-      <c r="M11" t="s">
-        <v>185</v>
-      </c>
-      <c r="N11" t="s">
-        <v>203</v>
-      </c>
-      <c r="O11" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D12" t="s">
+        <v>203</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>184</v>
+      </c>
+      <c r="O12" t="s">
         <v>204</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2">
-        <v>0</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>0</v>
-      </c>
-      <c r="J12" s="2">
-        <v>0</v>
-      </c>
-      <c r="K12" s="2">
-        <v>1</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1</v>
-      </c>
-      <c r="M12" t="s">
-        <v>185</v>
-      </c>
-      <c r="N12" t="s">
-        <v>205</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
+        <v>205</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>184</v>
+      </c>
+      <c r="O13" t="s">
         <v>206</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1</v>
-      </c>
-      <c r="L13" s="2">
-        <v>1</v>
-      </c>
-      <c r="M13" t="s">
-        <v>185</v>
-      </c>
-      <c r="N13" t="s">
-        <v>207</v>
-      </c>
-      <c r="O13" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6691,46 +6803,49 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+      <c r="K14" s="2">
+        <v>0</v>
+      </c>
+      <c r="L14" s="2">
+        <v>1</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>184</v>
+      </c>
+      <c r="O14" t="s">
         <v>208</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="2">
-        <v>0</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>0</v>
-      </c>
-      <c r="J14" s="2">
-        <v>0</v>
-      </c>
-      <c r="K14" s="2">
-        <v>1</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1</v>
-      </c>
-      <c r="M14" t="s">
-        <v>185</v>
-      </c>
-      <c r="N14" t="s">
-        <v>209</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="P14" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6738,46 +6853,49 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1</v>
+      </c>
+      <c r="M15" s="2">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>184</v>
+      </c>
+      <c r="O15" t="s">
         <v>210</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="4">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2">
-        <v>0</v>
-      </c>
-      <c r="K15" s="2">
-        <v>1</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1</v>
-      </c>
-      <c r="M15" t="s">
-        <v>185</v>
-      </c>
-      <c r="N15" t="s">
-        <v>211</v>
-      </c>
-      <c r="O15" s="3" t="s">
+      <c r="P15" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6785,46 +6903,49 @@
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D16" t="s">
+        <v>211</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+      <c r="K16" s="2">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>184</v>
+      </c>
+      <c r="O16" t="s">
         <v>212</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="2">
-        <v>0</v>
-      </c>
-      <c r="H16" s="4">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2">
-        <v>0</v>
-      </c>
-      <c r="K16" s="2">
-        <v>1</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1</v>
-      </c>
-      <c r="M16" t="s">
-        <v>185</v>
-      </c>
-      <c r="N16" t="s">
-        <v>213</v>
-      </c>
-      <c r="O16" s="3" t="s">
+      <c r="P16" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6832,46 +6953,49 @@
         <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D17" t="s">
+        <v>213</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" t="s">
+        <v>184</v>
+      </c>
+      <c r="O17" t="s">
         <v>214</v>
       </c>
-      <c r="E17" s="4">
-        <v>1</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="2">
-        <v>0</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>0</v>
-      </c>
-      <c r="M17" t="s">
-        <v>185</v>
-      </c>
-      <c r="N17" t="s">
-        <v>215</v>
-      </c>
-      <c r="O17" s="3" t="s">
+      <c r="P17" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6879,10 +7003,10 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E18" s="3">
         <v>0</v>
@@ -6891,10 +7015,10 @@
         <v>0</v>
       </c>
       <c r="G18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="4">
         <v>0</v>
@@ -6903,33 +7027,36 @@
         <v>0</v>
       </c>
       <c r="K18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>0</v>
-      </c>
-      <c r="M18" t="s">
-        <v>186</v>
+        <v>1</v>
+      </c>
+      <c r="M18" s="4">
+        <v>0</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
-      </c>
-      <c r="O18" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O18" t="s">
+        <v>185</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C19" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E19" s="3">
         <v>0</v>
@@ -6938,10 +7065,10 @@
         <v>0</v>
       </c>
       <c r="G19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="4">
         <v>0</v>
@@ -6950,22 +7077,25 @@
         <v>0</v>
       </c>
       <c r="K19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" s="4">
-        <v>0</v>
-      </c>
-      <c r="M19" t="s">
-        <v>188</v>
+        <v>1</v>
+      </c>
+      <c r="M19" s="4">
+        <v>0</v>
       </c>
       <c r="N19" t="s">
-        <v>188</v>
-      </c>
-      <c r="O19" s="6" t="s">
+        <v>187</v>
+      </c>
+      <c r="O19" t="s">
+        <v>187</v>
+      </c>
+      <c r="P19" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6973,10 +7103,10 @@
         <v>27</v>
       </c>
       <c r="C20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -6985,10 +7115,10 @@
         <v>0</v>
       </c>
       <c r="G20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
@@ -6997,22 +7127,25 @@
         <v>0</v>
       </c>
       <c r="K20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>0</v>
-      </c>
-      <c r="M20" t="s">
-        <v>201</v>
+        <v>1</v>
+      </c>
+      <c r="M20" s="4">
+        <v>0</v>
       </c>
       <c r="N20" t="s">
-        <v>185</v>
-      </c>
-      <c r="O20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" t="s">
+        <v>184</v>
+      </c>
+      <c r="P20" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7020,10 +7153,10 @@
         <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E21" s="3">
         <v>0</v>
@@ -7032,10 +7165,10 @@
         <v>0</v>
       </c>
       <c r="G21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="4">
         <v>0</v>
@@ -7044,22 +7177,25 @@
         <v>0</v>
       </c>
       <c r="K21" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L21" s="4">
-        <v>0</v>
-      </c>
-      <c r="M21" t="s">
-        <v>203</v>
+        <v>1</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
       </c>
       <c r="N21" t="s">
-        <v>191</v>
-      </c>
-      <c r="O21" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="O21" t="s">
+        <v>190</v>
+      </c>
+      <c r="P21" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7067,10 +7203,10 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -7079,10 +7215,10 @@
         <v>0</v>
       </c>
       <c r="G22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" s="4">
         <v>0</v>
@@ -7091,22 +7227,25 @@
         <v>0</v>
       </c>
       <c r="K22" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" t="s">
-        <v>205</v>
+        <v>1</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
       </c>
       <c r="N22" t="s">
-        <v>193</v>
-      </c>
-      <c r="O22" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="O22" t="s">
+        <v>192</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7114,10 +7253,10 @@
         <v>30</v>
       </c>
       <c r="C23" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E23" s="3">
         <v>0</v>
@@ -7129,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
@@ -7138,22 +7277,25 @@
         <v>0</v>
       </c>
       <c r="K23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>0</v>
-      </c>
-      <c r="M23" t="s">
-        <v>207</v>
-      </c>
-      <c r="N23" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="O23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="P23" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7161,10 +7303,10 @@
         <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -7172,35 +7314,38 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3">
-        <v>1</v>
+      <c r="G24" s="4">
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
       </c>
       <c r="I24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="3">
         <v>1</v>
       </c>
       <c r="L24" s="3">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>186</v>
+        <v>1</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" t="s">
-        <v>186</v>
-      </c>
-      <c r="O24" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O24" t="s">
+        <v>185</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7208,10 +7353,10 @@
         <v>32</v>
       </c>
       <c r="C25" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
@@ -7219,35 +7364,38 @@
       <c r="F25" s="3">
         <v>0</v>
       </c>
-      <c r="G25" s="3">
-        <v>1</v>
+      <c r="G25" s="4">
+        <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
-        <v>1</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="K25" s="3">
-        <v>0</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="M25" t="s">
-        <v>186</v>
+        <v>0</v>
+      </c>
+      <c r="J25" s="3">
+        <v>1</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="N25" t="s">
-        <v>186</v>
-      </c>
-      <c r="O25" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="O25" t="s">
+        <v>185</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7255,10 +7403,10 @@
         <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D26" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E26" s="3">
         <v>0</v>
@@ -7275,26 +7423,29 @@
       <c r="I26" s="4">
         <v>0</v>
       </c>
-      <c r="J26" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K26" s="4">
-        <v>0</v>
-      </c>
-      <c r="L26" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="M26" t="s">
-        <v>188</v>
+      <c r="J26" s="4">
+        <v>0</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L26" s="4">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="N26" t="s">
-        <v>188</v>
-      </c>
-      <c r="O26" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O26" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7302,10 +7453,10 @@
         <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E27" s="3">
         <v>0</v>
@@ -7322,26 +7473,29 @@
       <c r="I27" s="4">
         <v>0</v>
       </c>
-      <c r="J27" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="K27" s="4">
-        <v>0</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="M27" t="s">
-        <v>188</v>
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27" s="4">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="N27" t="s">
-        <v>188</v>
-      </c>
-      <c r="O27" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" t="s">
+        <v>187</v>
+      </c>
+      <c r="P27" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -7349,10 +7503,10 @@
         <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D28" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
@@ -7361,10 +7515,10 @@
         <v>0</v>
       </c>
       <c r="G28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="4">
         <v>0</v>
@@ -7373,22 +7527,25 @@
         <v>0</v>
       </c>
       <c r="K28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28" s="4">
-        <v>0</v>
-      </c>
-      <c r="M28" t="s">
-        <v>209</v>
+        <v>1</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
       </c>
       <c r="N28" t="s">
-        <v>209</v>
-      </c>
-      <c r="O28" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" t="s">
+        <v>208</v>
+      </c>
+      <c r="P28" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -7396,10 +7553,10 @@
         <v>36</v>
       </c>
       <c r="C29" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D29" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
@@ -7408,10 +7565,10 @@
         <v>0</v>
       </c>
       <c r="G29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="4">
         <v>0</v>
@@ -7420,22 +7577,25 @@
         <v>0</v>
       </c>
       <c r="K29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>211</v>
+        <v>1</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
       </c>
       <c r="N29" t="s">
-        <v>211</v>
-      </c>
-      <c r="O29" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="O29" t="s">
+        <v>210</v>
+      </c>
+      <c r="P29" s="2" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -7443,46 +7603,49 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D30" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E30" s="7">
         <v>1</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="M30" t="s">
-        <v>215</v>
+        <v>171</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="N30" t="s">
-        <v>215</v>
-      </c>
-      <c r="O30" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O30" t="s">
+        <v>214</v>
+      </c>
+      <c r="P30" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -7490,86 +7653,143 @@
         <v>37</v>
       </c>
       <c r="C31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D31" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E31" s="7">
         <v>1</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="M31" t="s">
-        <v>215</v>
+        <v>171</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="N31" t="s">
-        <v>215</v>
-      </c>
-      <c r="O31" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="O31" t="s">
+        <v>214</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>62</v>
       </c>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G35" s="3"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="3"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G37" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="H2:H17 F18:F19 E2:F17">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+  <conditionalFormatting sqref="I2:I17 F18:F19 E2:F17">
+    <cfRule type="cellIs" dxfId="16" priority="19" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F21">
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22">
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18:N29">
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+  <conditionalFormatting sqref="E18:O29">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30:N31 E2:N17">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+  <conditionalFormatting sqref="E30:F31 E2:F17 H2:O17 H30:O31">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G29">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36:G37 G2:G17">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G23">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="C2:D31 M2:N22 M23:N31" numberStoredAsText="1"/>
+    <ignoredError sqref="C2:D31 N2:O22 N23:O31" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7580,9 +7800,6 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="1">
-      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7596,19 +7813,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
         <v>83</v>
       </c>
-      <c r="B1" t="s">
-        <v>84</v>
-      </c>
       <c r="C1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" t="s">
         <v>88</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>89</v>
-      </c>
-      <c r="E1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -7616,16 +7833,16 @@
         <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -7633,16 +7850,16 @@
         <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>95</v>
-      </c>
       <c r="E3" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -7653,7 +7870,7 @@
         <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="1">
         <v>0</v>
@@ -7664,13 +7881,13 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -7681,13 +7898,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -7698,16 +7915,16 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -7718,13 +7935,13 @@
         <v>70</v>
       </c>
       <c r="B8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" t="s">
         <v>101</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E8" s="1">
         <v>0</v>
@@ -7735,13 +7952,13 @@
         <v>71</v>
       </c>
       <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
         <v>104</v>
       </c>
-      <c r="C9" t="s">
-        <v>105</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1">
         <v>0</v>
@@ -7752,10 +7969,10 @@
         <v>1000</v>
       </c>
       <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
         <v>106</v>
-      </c>
-      <c r="C10" t="s">
-        <v>107</v>
       </c>
       <c r="D10" s="1">
         <v>0</v>
@@ -7766,13 +7983,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
@@ -7786,10 +8003,10 @@
         <v>1010</v>
       </c>
       <c r="B12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
         <v>109</v>
-      </c>
-      <c r="C12" t="s">
-        <v>110</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
@@ -7803,10 +8020,10 @@
         <v>1011</v>
       </c>
       <c r="B13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s">
         <v>111</v>
-      </c>
-      <c r="C13" t="s">
-        <v>112</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -7823,7 +8040,7 @@
         <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -7837,10 +8054,10 @@
         <v>1101</v>
       </c>
       <c r="B15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -7857,7 +8074,7 @@
         <v>66</v>
       </c>
       <c r="C16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -7868,10 +8085,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B17" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="1">
         <v>0</v>
@@ -7885,22 +8102,22 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -7918,10 +8135,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="A1:D10"/>
-    </sheetView>
-    <sheetView zoomScale="205" zoomScaleNormal="205" workbookViewId="1">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7934,136 +8148,136 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s">
         <v>137</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" t="s">
         <v>151</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D2" t="s">
         <v>152</v>
-      </c>
-      <c r="C2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D2" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C3" t="s">
         <v>149</v>
       </c>
-      <c r="B3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C3" t="s">
-        <v>150</v>
-      </c>
       <c r="D3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
         <v>162</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>163</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>164</v>
-      </c>
-      <c r="D5" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B6" t="s">
         <v>158</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>159</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>160</v>
-      </c>
-      <c r="D6" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
         <v>145</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" t="s">
         <v>146</v>
-      </c>
-      <c r="C7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" t="s">
         <v>154</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>155</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>156</v>
-      </c>
-      <c r="D8" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B9" t="s">
         <v>142</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>143</v>
       </c>
-      <c r="C9" t="s">
-        <v>144</v>
-      </c>
       <c r="D9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
         <v>166</v>
-      </c>
-      <c r="B10" t="s">
-        <v>167</v>
       </c>
     </row>
   </sheetData>
